--- a/transactions2.xlsx
+++ b/transactions2.xlsx
@@ -447,7 +447,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
